--- a/DB Specification/ENCLICK_테이블 명세서_ORDER_GROUP.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_ORDER_GROUP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Downloads\ENCLICK_테이블명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B21527-E333-47F3-A135-78F05E794500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4A6BD9-3D41-4244-B3E2-6185D724488B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +392,14 @@
   </si>
   <si>
     <t>COMM_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +670,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,9 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1118,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1387,10 +1388,10 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>58</v>
@@ -1418,13 +1419,13 @@
         <v>52</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>66</v>
@@ -1442,12 +1443,14 @@
         <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1458,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="37"/>
@@ -1471,7 +1474,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>1</v>
@@ -1484,7 +1487,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="37"/>
@@ -1690,7 +1693,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1845,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -1994,10 +1997,10 @@
         <v>78</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
